--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -111,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,18 +440,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
@@ -461,105 +462,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43713</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2434</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="0">C2-C4</f>
         <v>500</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>4.49</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <f>D2*E2</f>
         <v>2245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1010</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <f>D3*E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43393</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1934</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>4.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>2250</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1010</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2.35</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>752</v>
       </c>
@@ -568,112 +569,136 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43366</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1434</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>4.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>690</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>2.35</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43261</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>1334</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>120</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>4.29</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>514.79999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>590</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>80</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2.17</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>173.6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>43218</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>1214</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>510</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +81,20 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,14 +127,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -124,15 +180,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,265 +513,305 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43218</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1214</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>510</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43261</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1334</v>
+      </c>
+      <c r="D4" s="2">
+        <v>120</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.29</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
+        <v>514.79999999999995</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>688.4</v>
+      </c>
+      <c r="H4" s="14">
+        <v>688.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>590</v>
+      </c>
+      <c r="D5" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.17</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>173.6</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43366</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1434</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C4</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>685</v>
+      </c>
+      <c r="H6" s="14">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>690</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D11" si="1">C7-C5</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.35</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43393</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1934</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="G8" s="14">
+        <f>SUM(F8,F9)</f>
+        <v>3002</v>
+      </c>
+      <c r="H8" s="14">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.35</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>43713</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C10" s="7">
         <v>2434</v>
       </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D7" si="0">C2-C4</f>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E10" s="12">
         <v>4.49</v>
       </c>
-      <c r="F2" s="6">
-        <f>D2*E2</f>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
         <v>2245</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43393</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1934</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>752</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43366</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1434</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>690</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43261</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1334</v>
-      </c>
-      <c r="D8" s="3">
-        <v>120</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>514.79999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>590</v>
-      </c>
-      <c r="D9" s="3">
-        <v>80</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>173.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43218</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1214</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
+      <c r="G10" s="14">
+        <f>SUM(F10,F11)</f>
+        <v>2245</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2245</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
-        <v>510</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(G4,G6,G8,G10)</f>
+        <v>6620.4</v>
+      </c>
+      <c r="H12" s="14">
+        <f>SUM(H4,H6,H8,H10)</f>
+        <v>6720.4</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <f>SUM(H12,-G12)</f>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -793,23 +793,74 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="13" t="s">
+      <c r="A12" s="9">
+        <v>43969</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2634</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12*E12</f>
+        <v>898</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>898</v>
+      </c>
+      <c r="H12" s="14">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f>D13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14">
-        <f>SUM(G4,G6,G8,G10)</f>
-        <v>6620.4</v>
-      </c>
-      <c r="H12" s="14">
-        <f>SUM(H4,H6,H8,H10)</f>
-        <v>6720.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14">
-        <f>SUM(H12,-G12)</f>
+      <c r="G14" s="14">
+        <f>SUM(G4,G6,G8,G10,G12)</f>
+        <v>7518.4</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H4,H6,H8,H10,H12)</f>
+        <v>7618.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
         <v>100</v>
       </c>
     </row>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
         <v>2245</v>
       </c>
       <c r="G10" s="14">
@@ -786,7 +786,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="13"/>
@@ -803,14 +803,14 @@
         <v>2634</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
+        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
         <v>200</v>
       </c>
       <c r="E12" s="12">
         <v>4.49</v>
       </c>
       <c r="F12" s="5">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>898</v>
       </c>
       <c r="G12" s="14">
@@ -830,38 +830,87 @@
         <v>1010</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="5">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="13" t="s">
+      <c r="A14" s="9">
+        <v>44007</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2899</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="4">C14-C12</f>
+        <v>265</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>1189.8500000000001</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>1238.45</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1139.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1030</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>48.6</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14">
-        <f>SUM(G4,G6,G8,G10,G12)</f>
-        <v>7518.4</v>
-      </c>
-      <c r="H14" s="14">
-        <f>SUM(H4,H6,H8,H10,H12)</f>
-        <v>7618.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
-        <v>100</v>
+      <c r="G16" s="14">
+        <v>8756.85</v>
+      </c>
+      <c r="H16" s="14">
+        <v>8758.07</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
+        <v>1.2199999999993452</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -90,7 +90,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -168,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,20 +191,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,7 +518,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,10 +573,10 @@
         <v>1214</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -585,10 +587,10 @@
         <v>510</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -603,18 +605,18 @@
       <c r="D4" s="2">
         <v>120</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>4.29</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>514.79999999999995</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
         <v>688.4</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>688.4</v>
       </c>
     </row>
@@ -629,15 +631,15 @@
       <c r="D5" s="2">
         <v>80</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>2.17</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>173.6</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -653,18 +655,18 @@
         <f>C6-C4</f>
         <v>100</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>4.5</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
         <v>685</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>785</v>
       </c>
     </row>
@@ -680,15 +682,15 @@
         <f t="shared" ref="D7:D11" si="1">C7-C5</f>
         <v>100</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2.35</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -704,18 +706,18 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>4.5</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
         <v>3002</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>3002</v>
       </c>
     </row>
@@ -731,18 +733,18 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>2.35</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>752</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="14">
         <v>43713</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -755,23 +757,23 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F15" si="2">D10*E10</f>
         <v>2245</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
         <v>2245</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>2245</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -782,18 +784,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="14">
         <v>43969</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -806,23 +808,23 @@
         <f t="shared" ref="D12:D13" si="3">C12-C10</f>
         <v>200</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>4.49</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>898</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
         <v>898</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -833,18 +835,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="14">
         <v>44007</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -857,18 +859,18 @@
         <f t="shared" ref="D14:D15" si="4">C14-C12</f>
         <v>265</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>4.49</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>1189.8500000000001</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
         <v>1238.45</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>1139.67</v>
       </c>
     </row>
@@ -884,31 +886,31 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>48.6</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>8756.85</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>8758.07</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
         <f>SUM(H16,-G16)</f>
         <v>1.2199999999993452</v>
       </c>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -897,22 +897,75 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="12" t="s">
+      <c r="A16" s="14">
+        <v>44130</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3514</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="5">C16-C14</f>
+        <v>615</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>2896.65</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(F16,F17)</f>
+        <v>3684.6</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1339</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="5"/>
+        <v>309</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="6"/>
+        <v>787.94999999999993</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="13">
-        <v>8756.85</v>
-      </c>
-      <c r="H16" s="13">
-        <v>8758.07</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13">
-        <f>SUM(H16,-G16)</f>
-        <v>1.2199999999993452</v>
+      <c r="G18" s="13">
+        <f>SUM(G2:G17)</f>
+        <v>12441.45</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(H2:H17)</f>
+        <v>12442.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13">
+        <f>SUM(H18,-G18)</f>
+        <v>0.61999999999898137</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -948,23 +948,125 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="12" t="s">
+      <c r="A18" s="14">
+        <v>44348</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3664</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="7">C18-C16</f>
+        <v>150</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>706.5</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(F18,F19)</f>
+        <v>834</v>
+      </c>
+      <c r="H18" s="13">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1389</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="8"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>44363</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3764</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="9">C20-C18</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>471</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(F20,F21)</f>
+        <v>726</v>
+      </c>
+      <c r="H20" s="13">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1489</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="10"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G22" s="13">
         <f>SUM(G2:G17)</f>
         <v>12441.45</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H22" s="13">
         <f>SUM(H2:H17)</f>
         <v>12442.07</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13">
-        <f>SUM(H18,-G18)</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13">
+        <f>SUM(H22,-G22)</f>
         <v>0.61999999999898137</v>
       </c>
     </row>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1050,23 +1050,74 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="12" t="s">
+      <c r="A22" s="14">
+        <v>44376</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3864</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="11">C22-C20</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="12">D22*E22</f>
+        <v>471</v>
+      </c>
+      <c r="G22" s="13">
+        <f>SUM(F22,F23)</f>
+        <v>624</v>
+      </c>
+      <c r="H22" s="13">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1549</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G24" s="13">
         <f>SUM(G2:G17)</f>
         <v>12441.45</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H24" s="13">
         <f>SUM(H2:H17)</f>
         <v>12442.07</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13">
-        <f>SUM(H22,-G22)</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13">
+        <f>SUM(H24,-G24)</f>
         <v>0.61999999999898137</v>
       </c>
     </row>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -517,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1101,25 +1098,55 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="12" t="s">
-        <v>10</v>
+      <c r="A24" s="14">
+        <v>44474</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4064</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="13">C24-C22</f>
+        <v>200</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="14">D24*E24</f>
+        <v>992</v>
       </c>
       <c r="G24" s="13">
-        <f>SUM(G2:G17)</f>
-        <v>12441.45</v>
+        <f>SUM(F24,F25)</f>
+        <v>992</v>
       </c>
       <c r="H24" s="13">
-        <f>SUM(H2:H17)</f>
-        <v>12442.07</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="12"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1549</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="13">
-        <f>SUM(H24,-G24)</f>
-        <v>0.61999999999898137</v>
-      </c>
+      <c r="H25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -512,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="14"/>
@@ -1147,6 +1147,57 @@
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44497</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4064</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="15">C26-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="16">D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <f>SUM(F26,F27)</f>
+        <v>536</v>
+      </c>
+      <c r="H26" s="13">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1749</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="16"/>
+        <v>536</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/1ee.xlsx
+++ b/sputnik/personal/ee/1ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -512,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1198,6 +1198,108 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44539</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4064</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="17">C28-C26</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="18">D28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <f>SUM(F28,F29)</f>
+        <v>536</v>
+      </c>
+      <c r="H28" s="13">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1949</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="18"/>
+        <v>536</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>44553</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4264</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:D31" si="19">C30-C28</f>
+        <v>200</v>
+      </c>
+      <c r="E30" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:F31" si="20">D30*E30</f>
+        <v>992</v>
+      </c>
+      <c r="G30" s="13">
+        <f>SUM(F30,F31)</f>
+        <v>992</v>
+      </c>
+      <c r="H30" s="13">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1949</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
